--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H2">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I2">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J2">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.35530666666667</v>
+        <v>46.17354133333333</v>
       </c>
       <c r="N2">
-        <v>133.06592</v>
+        <v>138.520624</v>
       </c>
       <c r="O2">
-        <v>0.1357695438667374</v>
+        <v>0.1154336358852217</v>
       </c>
       <c r="P2">
-        <v>0.1403037013810099</v>
+        <v>0.1189208138601986</v>
       </c>
       <c r="Q2">
-        <v>702.1083993137067</v>
+        <v>771.9735598279858</v>
       </c>
       <c r="R2">
-        <v>6318.97559382336</v>
+        <v>6947.762038451871</v>
       </c>
       <c r="S2">
-        <v>0.002063924102329459</v>
+        <v>0.003361594553500453</v>
       </c>
       <c r="T2">
-        <v>0.002177787507595362</v>
+        <v>0.003638107965181125</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H3">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I3">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J3">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>252.039825</v>
       </c>
       <c r="O3">
-        <v>0.2571607521783362</v>
+        <v>0.2100327918507284</v>
       </c>
       <c r="P3">
-        <v>0.2657488885427764</v>
+        <v>0.2163777511873036</v>
       </c>
       <c r="Q3">
-        <v>1329.86175644415</v>
+        <v>1404.61452818515</v>
       </c>
       <c r="R3">
-        <v>11968.75580799735</v>
+        <v>12641.53075366635</v>
       </c>
       <c r="S3">
-        <v>0.003909273460585541</v>
+        <v>0.006116458896295526</v>
       </c>
       <c r="T3">
-        <v>0.004124941850637048</v>
+        <v>0.006619578142207596</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H4">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I4">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J4">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>95.31862966666665</v>
+        <v>128.0910926666667</v>
       </c>
       <c r="N4">
-        <v>285.955889</v>
+        <v>384.273278</v>
       </c>
       <c r="O4">
-        <v>0.291765920346377</v>
+        <v>0.3202271284388135</v>
       </c>
       <c r="P4">
-        <v>0.3015097303531754</v>
+        <v>0.3299009897940278</v>
       </c>
       <c r="Q4">
-        <v>1508.816318258784</v>
+        <v>2141.549769256232</v>
       </c>
       <c r="R4">
-        <v>13579.34686432906</v>
+        <v>19273.94792330608</v>
       </c>
       <c r="S4">
-        <v>0.004435329883941337</v>
+        <v>0.009325477470997863</v>
       </c>
       <c r="T4">
-        <v>0.004680019968956183</v>
+        <v>0.01009255974401372</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H5">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I5">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J5">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.673201</v>
+        <v>35.18830149999999</v>
       </c>
       <c r="N5">
-        <v>63.346402</v>
+        <v>70.37660299999999</v>
       </c>
       <c r="O5">
-        <v>0.09695020451298475</v>
+        <v>0.08797058803540478</v>
       </c>
       <c r="P5">
-        <v>0.0667919679942799</v>
+        <v>0.06041874966919073</v>
       </c>
       <c r="Q5">
-        <v>501.360989844386</v>
+        <v>588.3117817875723</v>
       </c>
       <c r="R5">
-        <v>3008.165939066316</v>
+        <v>3529.870690725433</v>
       </c>
       <c r="S5">
-        <v>0.001473805229960282</v>
+        <v>0.002561830850603124</v>
       </c>
       <c r="T5">
-        <v>0.001036741811327152</v>
+        <v>0.001848372267920839</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H6">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I6">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J6">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>71.335144</v>
+        <v>106.534543</v>
       </c>
       <c r="N6">
-        <v>214.005432</v>
+        <v>319.603629</v>
       </c>
       <c r="O6">
-        <v>0.2183535790955647</v>
+        <v>0.2663358557898317</v>
       </c>
       <c r="P6">
-        <v>0.2256457117287584</v>
+        <v>0.2743816954892795</v>
       </c>
       <c r="Q6">
-        <v>1129.177262712784</v>
+        <v>1781.146692012251</v>
       </c>
       <c r="R6">
-        <v>10162.59536441506</v>
+        <v>16030.32022811026</v>
       </c>
       <c r="S6">
-        <v>0.003319339535879871</v>
+        <v>0.007756085610222053</v>
       </c>
       <c r="T6">
-        <v>0.003502462210963925</v>
+        <v>0.008394075010560834</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>466.501167</v>
       </c>
       <c r="I7">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J7">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.35530666666667</v>
+        <v>46.17354133333333</v>
       </c>
       <c r="N7">
-        <v>133.06592</v>
+        <v>138.520624</v>
       </c>
       <c r="O7">
-        <v>0.1357695438667374</v>
+        <v>0.1154336358852217</v>
       </c>
       <c r="P7">
-        <v>0.1403037013810099</v>
+        <v>0.1189208138601986</v>
       </c>
       <c r="Q7">
-        <v>6897.267440880962</v>
+        <v>7180.003638840913</v>
       </c>
       <c r="R7">
-        <v>62075.40696792864</v>
+        <v>64620.03274956821</v>
       </c>
       <c r="S7">
-        <v>0.02027526878379638</v>
+        <v>0.03126565776659396</v>
       </c>
       <c r="T7">
-        <v>0.02139382306774457</v>
+        <v>0.03383746515141933</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>466.501167</v>
       </c>
       <c r="I8">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J8">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>252.039825</v>
       </c>
       <c r="O8">
-        <v>0.2571607521783362</v>
+        <v>0.2100327918507284</v>
       </c>
       <c r="P8">
-        <v>0.2657488885427764</v>
+        <v>0.2163777511873036</v>
       </c>
       <c r="Q8">
         <v>13064.09694366398</v>
@@ -948,10 +948,10 @@
         <v>117576.8724929758</v>
       </c>
       <c r="S8">
-        <v>0.03840333570080154</v>
+        <v>0.05688821407563276</v>
       </c>
       <c r="T8">
-        <v>0.04052198656181315</v>
+        <v>0.06156764638316476</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>466.501167</v>
       </c>
       <c r="I9">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J9">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>95.31862966666665</v>
+        <v>128.0910926666667</v>
       </c>
       <c r="N9">
-        <v>285.955889</v>
+        <v>384.273278</v>
       </c>
       <c r="O9">
-        <v>0.291765920346377</v>
+        <v>0.3202271284388135</v>
       </c>
       <c r="P9">
-        <v>0.3015097303531754</v>
+        <v>0.3299009897940278</v>
       </c>
       <c r="Q9">
-        <v>14822.08399211361</v>
+        <v>19918.21473710172</v>
       </c>
       <c r="R9">
-        <v>133398.7559290224</v>
+        <v>179263.9326339154</v>
       </c>
       <c r="S9">
-        <v>0.04357113008187551</v>
+        <v>0.08673478686318378</v>
       </c>
       <c r="T9">
-        <v>0.04597487992752466</v>
+        <v>0.09386929741918193</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>466.501167</v>
       </c>
       <c r="I10">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J10">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.673201</v>
+        <v>35.18830149999999</v>
       </c>
       <c r="N10">
-        <v>63.346402</v>
+        <v>70.37660299999999</v>
       </c>
       <c r="O10">
-        <v>0.09695020451298475</v>
+        <v>0.08797058803540478</v>
       </c>
       <c r="P10">
-        <v>0.0667919679942799</v>
+        <v>0.06041874966919073</v>
       </c>
       <c r="Q10">
-        <v>4925.195076375189</v>
+        <v>5471.794571499283</v>
       </c>
       <c r="R10">
-        <v>29551.17045825113</v>
+        <v>32830.7674289957</v>
       </c>
       <c r="S10">
-        <v>0.01447814730138735</v>
+        <v>0.02382718241480181</v>
       </c>
       <c r="T10">
-        <v>0.01018458908461476</v>
+        <v>0.01719141729745436</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>466.501167</v>
       </c>
       <c r="I11">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J11">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>71.335144</v>
+        <v>106.534543</v>
       </c>
       <c r="N11">
-        <v>214.005432</v>
+        <v>319.603629</v>
       </c>
       <c r="O11">
-        <v>0.2183535790955647</v>
+        <v>0.2663358557898317</v>
       </c>
       <c r="P11">
-        <v>0.2256457117287584</v>
+        <v>0.2743816954892795</v>
       </c>
       <c r="Q11">
-        <v>11092.64264137102</v>
+        <v>16566.16287843723</v>
       </c>
       <c r="R11">
-        <v>99833.78377233914</v>
+        <v>149095.465905935</v>
       </c>
       <c r="S11">
-        <v>0.03260803107957663</v>
+        <v>0.07213812208408377</v>
       </c>
       <c r="T11">
-        <v>0.03440696421551243</v>
+        <v>0.0780719603064642</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H12">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I12">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J12">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.35530666666667</v>
+        <v>46.17354133333333</v>
       </c>
       <c r="N12">
-        <v>133.06592</v>
+        <v>138.520624</v>
       </c>
       <c r="O12">
-        <v>0.1357695438667374</v>
+        <v>0.1154336358852217</v>
       </c>
       <c r="P12">
-        <v>0.1403037013810099</v>
+        <v>0.1189208138601986</v>
       </c>
       <c r="Q12">
-        <v>7944.89468978585</v>
+        <v>8997.138162651858</v>
       </c>
       <c r="R12">
-        <v>71504.05220807264</v>
+        <v>80974.24346386672</v>
       </c>
       <c r="S12">
-        <v>0.02335488317294971</v>
+        <v>0.03917845405404922</v>
       </c>
       <c r="T12">
-        <v>0.02464333487747606</v>
+        <v>0.0424011413301155</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H13">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I13">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J13">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>252.039825</v>
       </c>
       <c r="O13">
-        <v>0.2571607521783362</v>
+        <v>0.2100327918507284</v>
       </c>
       <c r="P13">
-        <v>0.2657488885427764</v>
+        <v>0.2163777511873036</v>
       </c>
       <c r="Q13">
-        <v>15048.40508566773</v>
+        <v>16370.39353804525</v>
       </c>
       <c r="R13">
-        <v>135435.6457710095</v>
+        <v>147333.5418424073</v>
       </c>
       <c r="S13">
-        <v>0.04423642558369332</v>
+        <v>0.07128563544121132</v>
       </c>
       <c r="T13">
-        <v>0.04667687872248177</v>
+        <v>0.07714935099225788</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H14">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I14">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J14">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>95.31862966666665</v>
+        <v>128.0910926666667</v>
       </c>
       <c r="N14">
-        <v>285.955889</v>
+        <v>384.273278</v>
       </c>
       <c r="O14">
-        <v>0.291765920346377</v>
+        <v>0.3202271284388135</v>
       </c>
       <c r="P14">
-        <v>0.3015097303531754</v>
+        <v>0.3299009897940278</v>
       </c>
       <c r="Q14">
-        <v>17073.41311756678</v>
+        <v>24959.16979395882</v>
       </c>
       <c r="R14">
-        <v>153660.718058101</v>
+        <v>224632.5281456293</v>
       </c>
       <c r="S14">
-        <v>0.0501891572253209</v>
+        <v>0.1086858586943839</v>
       </c>
       <c r="T14">
-        <v>0.05295801308714786</v>
+        <v>0.1176259902631161</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H15">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I15">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J15">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>31.673201</v>
+        <v>35.18830149999999</v>
       </c>
       <c r="N15">
-        <v>63.346402</v>
+        <v>70.37660299999999</v>
       </c>
       <c r="O15">
-        <v>0.09695020451298475</v>
+        <v>0.08797058803540478</v>
       </c>
       <c r="P15">
-        <v>0.0667919679942799</v>
+        <v>0.06041874966919073</v>
       </c>
       <c r="Q15">
-        <v>5673.283882907505</v>
+        <v>6856.610975948597</v>
       </c>
       <c r="R15">
-        <v>34039.70329744503</v>
+        <v>41139.66585569159</v>
       </c>
       <c r="S15">
-        <v>0.01667723581819493</v>
+        <v>0.0298574294660508</v>
       </c>
       <c r="T15">
-        <v>0.01173152823629987</v>
+        <v>0.02154226716547588</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H16">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I16">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J16">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>71.335144</v>
+        <v>106.534543</v>
       </c>
       <c r="N16">
-        <v>214.005432</v>
+        <v>319.603629</v>
       </c>
       <c r="O16">
-        <v>0.2183535790955647</v>
+        <v>0.2663358557898317</v>
       </c>
       <c r="P16">
-        <v>0.2256457117287584</v>
+        <v>0.2743816954892795</v>
       </c>
       <c r="Q16">
-        <v>12777.50621858795</v>
+        <v>20758.77168585326</v>
       </c>
       <c r="R16">
-        <v>114997.5559672915</v>
+        <v>186828.9451726794</v>
       </c>
       <c r="S16">
-        <v>0.03756087105350966</v>
+        <v>0.09039503095426349</v>
       </c>
       <c r="T16">
-        <v>0.03963304448182473</v>
+        <v>0.09783062082399227</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H17">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I17">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J17">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>44.35530666666667</v>
+        <v>46.17354133333333</v>
       </c>
       <c r="N17">
-        <v>133.06592</v>
+        <v>138.520624</v>
       </c>
       <c r="O17">
-        <v>0.1357695438667374</v>
+        <v>0.1154336358852217</v>
       </c>
       <c r="P17">
-        <v>0.1403037013810099</v>
+        <v>0.1189208138601986</v>
       </c>
       <c r="Q17">
-        <v>2859.03220164432</v>
+        <v>3824.531434216416</v>
       </c>
       <c r="R17">
-        <v>17154.19320986592</v>
+        <v>22947.18860529849</v>
       </c>
       <c r="S17">
-        <v>0.008404436517320797</v>
+        <v>0.0166540989328934</v>
       </c>
       <c r="T17">
-        <v>0.00591206392881781</v>
+        <v>0.01201600589965691</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H18">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I18">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J18">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>252.039825</v>
       </c>
       <c r="O18">
-        <v>0.2571607521783362</v>
+        <v>0.2100327918507284</v>
       </c>
       <c r="P18">
-        <v>0.2657488885427764</v>
+        <v>0.2163777511873036</v>
       </c>
       <c r="Q18">
-        <v>5415.285715319137</v>
+        <v>6958.77772963905</v>
       </c>
       <c r="R18">
-        <v>32491.71429191482</v>
+        <v>41752.6663778343</v>
       </c>
       <c r="S18">
-        <v>0.01591882210748735</v>
+        <v>0.03030231931801824</v>
       </c>
       <c r="T18">
-        <v>0.01119802544489268</v>
+        <v>0.02186325715763809</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H19">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I19">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J19">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>95.31862966666665</v>
+        <v>128.0910926666667</v>
       </c>
       <c r="N19">
-        <v>285.955889</v>
+        <v>384.273278</v>
       </c>
       <c r="O19">
-        <v>0.291765920346377</v>
+        <v>0.3202271284388135</v>
       </c>
       <c r="P19">
-        <v>0.3015097303531754</v>
+        <v>0.3299009897940278</v>
       </c>
       <c r="Q19">
-        <v>6144.00061939848</v>
+        <v>10609.72141621585</v>
       </c>
       <c r="R19">
-        <v>36864.00371639088</v>
+        <v>63658.32849729511</v>
       </c>
       <c r="S19">
-        <v>0.01806095892813526</v>
+        <v>0.04620052237910256</v>
       </c>
       <c r="T19">
-        <v>0.01270490217622912</v>
+        <v>0.03333388084887995</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H20">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I20">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J20">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>31.673201</v>
+        <v>35.18830149999999</v>
       </c>
       <c r="N20">
-        <v>63.346402</v>
+        <v>70.37660299999999</v>
       </c>
       <c r="O20">
-        <v>0.09695020451298475</v>
+        <v>0.08797058803540478</v>
       </c>
       <c r="P20">
-        <v>0.0667919679942799</v>
+        <v>0.06041874966919073</v>
       </c>
       <c r="Q20">
-        <v>2041.5753692941</v>
+        <v>2914.629489470852</v>
       </c>
       <c r="R20">
-        <v>8166.301477176401</v>
+        <v>11658.51795788341</v>
       </c>
       <c r="S20">
-        <v>0.006001433134152792</v>
+        <v>0.01269188885103812</v>
       </c>
       <c r="T20">
-        <v>0.00281445450709387</v>
+        <v>0.006104835889605954</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H21">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I21">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J21">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>71.335144</v>
+        <v>106.534543</v>
       </c>
       <c r="N21">
-        <v>214.005432</v>
+        <v>319.603629</v>
       </c>
       <c r="O21">
-        <v>0.2183535790955647</v>
+        <v>0.2663358557898317</v>
       </c>
       <c r="P21">
-        <v>0.2256457117287584</v>
+        <v>0.2743816954892795</v>
       </c>
       <c r="Q21">
-        <v>4598.085080047572</v>
+        <v>8824.203142487586</v>
       </c>
       <c r="R21">
-        <v>27588.51048028543</v>
+        <v>52945.21885492552</v>
       </c>
       <c r="S21">
-        <v>0.01351657184353298</v>
+        <v>0.03842540051420617</v>
       </c>
       <c r="T21">
-        <v>0.009508173055116385</v>
+        <v>0.02772409610005625</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H22">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I22">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J22">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>44.35530666666667</v>
+        <v>46.17354133333333</v>
       </c>
       <c r="N22">
-        <v>133.06592</v>
+        <v>138.520624</v>
       </c>
       <c r="O22">
-        <v>0.1357695438667374</v>
+        <v>0.1154336358852217</v>
       </c>
       <c r="P22">
-        <v>0.1403037013810099</v>
+        <v>0.1189208138601986</v>
       </c>
       <c r="Q22">
-        <v>27782.95819349255</v>
+        <v>5735.116649896616</v>
       </c>
       <c r="R22">
-        <v>250046.623741433</v>
+        <v>51616.04984906955</v>
       </c>
       <c r="S22">
-        <v>0.08167103129034103</v>
+        <v>0.02497383057818468</v>
       </c>
       <c r="T22">
-        <v>0.08617669199937614</v>
+        <v>0.02702809351382577</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H23">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I23">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J23">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>252.039825</v>
       </c>
       <c r="O23">
-        <v>0.2571607521783362</v>
+        <v>0.2100327918507284</v>
       </c>
       <c r="P23">
-        <v>0.2657488885427764</v>
+        <v>0.2163777511873036</v>
       </c>
       <c r="Q23">
-        <v>52623.63136308815</v>
+        <v>10435.10890331053</v>
       </c>
       <c r="R23">
-        <v>473612.6822677933</v>
+        <v>93915.98012979471</v>
       </c>
       <c r="S23">
-        <v>0.1546928953257684</v>
+        <v>0.0454401641195705</v>
       </c>
       <c r="T23">
-        <v>0.1632270559629518</v>
+        <v>0.04917791851203531</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H24">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I24">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J24">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>95.31862966666665</v>
+        <v>128.0910926666667</v>
       </c>
       <c r="N24">
-        <v>285.955889</v>
+        <v>384.273278</v>
       </c>
       <c r="O24">
-        <v>0.291765920346377</v>
+        <v>0.3202271284388135</v>
       </c>
       <c r="P24">
-        <v>0.3015097303531754</v>
+        <v>0.3299009897940278</v>
       </c>
       <c r="Q24">
-        <v>59704.99816384236</v>
+        <v>15909.92020630914</v>
       </c>
       <c r="R24">
-        <v>537344.9834745813</v>
+        <v>143189.2818567823</v>
       </c>
       <c r="S24">
-        <v>0.175509344227104</v>
+        <v>0.06928048303114534</v>
       </c>
       <c r="T24">
-        <v>0.1851919151933176</v>
+        <v>0.07497926151883612</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H25">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I25">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J25">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>31.673201</v>
+        <v>35.18830149999999</v>
       </c>
       <c r="N25">
-        <v>63.346402</v>
+        <v>70.37660299999999</v>
       </c>
       <c r="O25">
-        <v>0.09695020451298475</v>
+        <v>0.08797058803540478</v>
       </c>
       <c r="P25">
-        <v>0.0667919679942799</v>
+        <v>0.06041874966919073</v>
       </c>
       <c r="Q25">
-        <v>19839.23199652668</v>
+        <v>4370.663544243752</v>
       </c>
       <c r="R25">
-        <v>119035.3919791601</v>
+        <v>26223.98126546251</v>
       </c>
       <c r="S25">
-        <v>0.0583195830292894</v>
+        <v>0.0190322564529109</v>
       </c>
       <c r="T25">
-        <v>0.04102465435494426</v>
+        <v>0.0137318570487337</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H26">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I26">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J26">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>71.335144</v>
+        <v>106.534543</v>
       </c>
       <c r="N26">
-        <v>214.005432</v>
+        <v>319.603629</v>
       </c>
       <c r="O26">
-        <v>0.2183535790955647</v>
+        <v>0.2663358557898317</v>
       </c>
       <c r="P26">
-        <v>0.2256457117287584</v>
+        <v>0.2743816954892795</v>
       </c>
       <c r="Q26">
-        <v>44682.39478926169</v>
+        <v>13232.42735352738</v>
       </c>
       <c r="R26">
-        <v>402141.5531033552</v>
+        <v>119091.8461817464</v>
       </c>
       <c r="S26">
-        <v>0.1313487655830655</v>
+        <v>0.05762121662705614</v>
       </c>
       <c r="T26">
-        <v>0.1385950677653409</v>
+        <v>0.06236094324820598</v>
       </c>
     </row>
   </sheetData>
